--- a/biology/Botanique/Caladium_bicolor/Caladium_bicolor.xlsx
+++ b/biology/Botanique/Caladium_bicolor/Caladium_bicolor.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Caladium bicolor est une espèce de plantes ornementales de la famille des Aracées. On la trouve dans les jungles tropicales. Elle mesure jusqu'à 40 cm de haut. Ses feuilles sont le plus souvent blanches ou rouges au centre et vertes sur les bords.
-Cette plante est toxique mais non mortelle pour les petits animaux dont les chats et les chiens. Elle peut être dangereuse pour les êtres humains si elle est ingérée en grande quantité[3].
-Le Caladium bicolor est notamment populaire en Asie, en particulier en Thaïlande, au Vietnam, en Malaisie, en Indonésie et au Cambodge[4].
+Cette plante est toxique mais non mortelle pour les petits animaux dont les chats et les chiens. Elle peut être dangereuse pour les êtres humains si elle est ingérée en grande quantité.
+Le Caladium bicolor est notamment populaire en Asie, en particulier en Thaïlande, au Vietnam, en Malaisie, en Indonésie et au Cambodge.
 			Fleur
 </t>
         </is>
@@ -514,9 +526,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Tropicos                                           (10 juin 2020)[5] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Tropicos                                           (10 juin 2020) (Attention liste brute contenant possiblement des synonymes) :
 Caladium bicolor var. albomaculatum Engl.
 Caladium bicolor var. argyrospilum (Lem.) Engl.
 Caladium bicolor var. barraquinii Engl.
